--- a/Lab7/Data/Part2Resonance.xlsx
+++ b/Lab7/Data/Part2Resonance.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murtadha\Desktop\Lab 5 Electrical Resonance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viraj/Google_Drive/Queens/second_year/semester_two/ENPHYS253/Lab7/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24900" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,24 +30,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Frequency [kHz]</t>
-  </si>
-  <si>
-    <t>VT [V]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>VR [V]</t>
   </si>
   <si>
-    <t xml:space="preserve">Phase Shift VR to VT [Degrees] </t>
+    <t>Error in VR [V]</t>
+  </si>
+  <si>
+    <t>VT [V] +/- 0.04 [V]</t>
+  </si>
+  <si>
+    <t>Phase Shift VR to VT [Degrees]  +/- 2 [Degrees]</t>
+  </si>
+  <si>
+    <t>Frequency [kHz] +/- 0.1 [kHz]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -71,8 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,35 +397,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5.08</v>
       </c>
@@ -423,13 +437,17 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="C2">
-        <v>7.59</v>
+        <f>B2*5/100</f>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="D2">
+        <v>7.59</v>
+      </c>
+      <c r="E2">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5.62</v>
       </c>
@@ -437,13 +455,17 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="C3">
-        <v>7.59</v>
+        <f t="shared" ref="C3:C26" si="0">B3*5/100</f>
+        <v>3.0499999999999998E-3</v>
       </c>
       <c r="D3">
+        <v>7.59</v>
+      </c>
+      <c r="E3">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6.02</v>
       </c>
@@ -451,13 +473,17 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C4">
-        <v>7.59</v>
+        <f t="shared" si="0"/>
+        <v>3.5000000000000005E-3</v>
       </c>
       <c r="D4">
+        <v>7.59</v>
+      </c>
+      <c r="E4">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6.51</v>
       </c>
@@ -465,13 +491,17 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="C5">
-        <v>7.59</v>
+        <f t="shared" si="0"/>
+        <v>4.2500000000000003E-3</v>
       </c>
       <c r="D5">
+        <v>7.59</v>
+      </c>
+      <c r="E5">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>7.04</v>
       </c>
@@ -479,13 +509,17 @@
         <v>0.108</v>
       </c>
       <c r="C6">
-        <v>7.59</v>
+        <f t="shared" si="0"/>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="D6">
+        <v>7.59</v>
+      </c>
+      <c r="E6">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7.51</v>
       </c>
@@ -493,13 +527,17 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="C7">
-        <v>7.59</v>
+        <f t="shared" si="0"/>
+        <v>6.6500000000000005E-3</v>
       </c>
       <c r="D7">
+        <v>7.59</v>
+      </c>
+      <c r="E7">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8.0399999999999991</v>
       </c>
@@ -507,139 +545,179 @@
         <v>0.18099999999999999</v>
       </c>
       <c r="C8">
-        <v>7.59</v>
+        <f t="shared" si="0"/>
+        <v>9.0500000000000008E-3</v>
       </c>
       <c r="D8">
+        <v>7.59</v>
+      </c>
+      <c r="E8">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8.5</v>
       </c>
       <c r="B9">
         <v>0.249</v>
       </c>
-      <c r="C9">
-        <v>7.59</v>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2450000000000001E-2</v>
       </c>
       <c r="D9">
+        <v>7.59</v>
+      </c>
+      <c r="E9">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9.07</v>
       </c>
       <c r="B10">
         <v>0.44600000000000001</v>
       </c>
-      <c r="C10">
-        <v>7.59</v>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.23E-2</v>
       </c>
       <c r="D10">
+        <v>7.59</v>
+      </c>
+      <c r="E10">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9.25</v>
       </c>
       <c r="B11">
         <v>0.57999999999999996</v>
       </c>
-      <c r="C11">
-        <v>7.59</v>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8999999999999998E-2</v>
       </c>
       <c r="D11">
+        <v>7.59</v>
+      </c>
+      <c r="E11">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9.52</v>
       </c>
       <c r="B12">
         <v>0.97799999999999998</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="D12">
         <v>7.58</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9.77</v>
       </c>
       <c r="B13">
         <v>1.37</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="D13">
         <v>7.18</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>9.9700000000000006</v>
       </c>
       <c r="B14">
         <v>1.07</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>5.3500000000000006E-2</v>
+      </c>
+      <c r="D14">
         <v>7.11</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10.199999999999999</v>
       </c>
       <c r="B15">
         <v>0.72299999999999998</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>3.6149999999999995E-2</v>
+      </c>
+      <c r="D15">
         <v>7.27</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-59</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10.4</v>
       </c>
       <c r="B16">
         <v>0.54600000000000004</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7300000000000005E-2</v>
+      </c>
+      <c r="D16">
         <v>7.31</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-68</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10.85</v>
       </c>
       <c r="B17">
         <v>0.33900000000000002</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.695E-2</v>
+      </c>
+      <c r="D17">
         <v>7.45</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-78</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>11.61</v>
       </c>
@@ -647,13 +725,17 @@
         <v>0.20799999999999999</v>
       </c>
       <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1.04E-2</v>
+      </c>
+      <c r="D18">
         <v>7.49</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-85</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>12.13</v>
       </c>
@@ -661,13 +743,17 @@
         <v>0.17100000000000001</v>
       </c>
       <c r="C19">
+        <f t="shared" si="0"/>
+        <v>8.5500000000000003E-3</v>
+      </c>
+      <c r="D19">
         <v>7.5</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-84</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>12.95</v>
       </c>
@@ -675,13 +761,17 @@
         <v>0.128</v>
       </c>
       <c r="C20">
+        <f t="shared" si="0"/>
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="D20">
         <v>7.53</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-87</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>13.47</v>
       </c>
@@ -689,13 +779,17 @@
         <v>0.115</v>
       </c>
       <c r="C21">
+        <f t="shared" si="0"/>
+        <v>5.7500000000000008E-3</v>
+      </c>
+      <c r="D21">
         <v>7.54</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-89</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>14.8</v>
       </c>
@@ -703,13 +797,17 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="C22">
+        <f t="shared" si="0"/>
+        <v>4.2999999999999991E-3</v>
+      </c>
+      <c r="D22">
         <v>7.54</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-91</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>15.5</v>
       </c>
@@ -717,13 +815,17 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="C23">
+        <f t="shared" si="0"/>
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="D23">
         <v>7.53</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>-91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>16.16</v>
       </c>
@@ -731,13 +833,17 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="C24">
+        <f t="shared" si="0"/>
+        <v>3.3500000000000001E-3</v>
+      </c>
+      <c r="D24">
         <v>7.53</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-92</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>17.18</v>
       </c>
@@ -745,13 +851,17 @@
         <v>0.06</v>
       </c>
       <c r="C25">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D25">
         <v>7.54</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>-90</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>18.07</v>
       </c>
@@ -759,9 +869,13 @@
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="C26">
+        <f t="shared" si="0"/>
+        <v>2.8500000000000001E-3</v>
+      </c>
+      <c r="D26">
         <v>7.54</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-90</v>
       </c>
     </row>
